--- a/data/pca/factorExposure/factorExposure_2015-07-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02350626608452181</v>
+        <v>0.01422691077664155</v>
       </c>
       <c r="C2">
-        <v>-0.02988450608492961</v>
+        <v>-0.0493711121262819</v>
       </c>
       <c r="D2">
-        <v>-0.1345028475672886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1398843175801184</v>
+      </c>
+      <c r="E2">
+        <v>4.403126499722844e-05</v>
+      </c>
+      <c r="F2">
+        <v>0.007547345730693905</v>
+      </c>
+      <c r="G2">
+        <v>0.1367939983251375</v>
+      </c>
+      <c r="H2">
+        <v>0.02321085869416313</v>
+      </c>
+      <c r="I2">
+        <v>0.03587624195994063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.006382220985784404</v>
+        <v>-0.009246052229140381</v>
       </c>
       <c r="C3">
-        <v>-0.02670165319992386</v>
+        <v>-0.01605516999293198</v>
       </c>
       <c r="D3">
-        <v>-0.01559075679657044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01328878673785861</v>
+      </c>
+      <c r="E3">
+        <v>-0.02015765023501552</v>
+      </c>
+      <c r="F3">
+        <v>-0.01508115032360116</v>
+      </c>
+      <c r="G3">
+        <v>9.264865430581898e-05</v>
+      </c>
+      <c r="H3">
+        <v>0.01015643498669547</v>
+      </c>
+      <c r="I3">
+        <v>0.007146555221595962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03839699349803449</v>
+        <v>0.02276274451946706</v>
       </c>
       <c r="C4">
-        <v>-0.06982181507540054</v>
+        <v>-0.09255632689889788</v>
       </c>
       <c r="D4">
-        <v>-0.1394252364348278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1506161320042753</v>
+      </c>
+      <c r="E4">
+        <v>-0.01147957484845869</v>
+      </c>
+      <c r="F4">
+        <v>0.09148866939301063</v>
+      </c>
+      <c r="G4">
+        <v>0.01841781062180952</v>
+      </c>
+      <c r="H4">
+        <v>0.04314686082995152</v>
+      </c>
+      <c r="I4">
+        <v>0.0206037977391081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02726214098970294</v>
+        <v>0.02712418848621345</v>
       </c>
       <c r="C6">
-        <v>-0.01393157710693503</v>
+        <v>-0.03024975266643972</v>
       </c>
       <c r="D6">
-        <v>-0.1445310250302753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1256919750178678</v>
+      </c>
+      <c r="E6">
+        <v>0.04040582150227577</v>
+      </c>
+      <c r="F6">
+        <v>0.04733799575681387</v>
+      </c>
+      <c r="G6">
+        <v>0.03839881053249444</v>
+      </c>
+      <c r="H6">
+        <v>0.01847116504988061</v>
+      </c>
+      <c r="I6">
+        <v>-0.02921415226495692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.009340280272168064</v>
+        <v>0.00658008804570229</v>
       </c>
       <c r="C7">
-        <v>-0.02474409221967961</v>
+        <v>-0.03551749942550027</v>
       </c>
       <c r="D7">
-        <v>-0.1154413460266973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.1004837723664743</v>
+      </c>
+      <c r="E7">
+        <v>0.04581496940777115</v>
+      </c>
+      <c r="F7">
+        <v>0.007536859238128898</v>
+      </c>
+      <c r="G7">
+        <v>0.03338072728486074</v>
+      </c>
+      <c r="H7">
+        <v>0.05513196103389084</v>
+      </c>
+      <c r="I7">
+        <v>-0.04462095279458651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.004333574921672668</v>
+        <v>-0.004173941141311715</v>
       </c>
       <c r="C8">
-        <v>-0.02791507619881714</v>
+        <v>-0.03563890233325541</v>
       </c>
       <c r="D8">
-        <v>-0.08398533814207029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08274392358107599</v>
+      </c>
+      <c r="E8">
+        <v>0.0192372392193568</v>
+      </c>
+      <c r="F8">
+        <v>0.03748755435984896</v>
+      </c>
+      <c r="G8">
+        <v>0.06457616363853644</v>
+      </c>
+      <c r="H8">
+        <v>-0.01752447867959171</v>
+      </c>
+      <c r="I8">
+        <v>-0.01987331272153954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.0354775358101814</v>
+        <v>0.0193385647549669</v>
       </c>
       <c r="C9">
-        <v>-0.06316816541549745</v>
+        <v>-0.0813259725605376</v>
       </c>
       <c r="D9">
-        <v>-0.1303397023223723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1240344365595068</v>
+      </c>
+      <c r="E9">
+        <v>-0.004401010623456269</v>
+      </c>
+      <c r="F9">
+        <v>0.05448850265984397</v>
+      </c>
+      <c r="G9">
+        <v>0.007543993327348201</v>
+      </c>
+      <c r="H9">
+        <v>0.04861413539237345</v>
+      </c>
+      <c r="I9">
+        <v>0.007662479576406032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1539931745983652</v>
+        <v>0.2192205317632328</v>
       </c>
       <c r="C10">
-        <v>0.1778647293796048</v>
+        <v>0.118967601848691</v>
       </c>
       <c r="D10">
-        <v>-0.01180239929605946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.003524665010002998</v>
+      </c>
+      <c r="E10">
+        <v>-0.01727960139674158</v>
+      </c>
+      <c r="F10">
+        <v>0.04304003165809091</v>
+      </c>
+      <c r="G10">
+        <v>-0.03389282890430376</v>
+      </c>
+      <c r="H10">
+        <v>-0.06448947254323487</v>
+      </c>
+      <c r="I10">
+        <v>-0.1211492294848174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02401238739641191</v>
+        <v>0.01227743419312257</v>
       </c>
       <c r="C11">
-        <v>-0.04288117757962779</v>
+        <v>-0.05375594236930799</v>
       </c>
       <c r="D11">
-        <v>-0.05415941132289827</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04764755575270314</v>
+      </c>
+      <c r="E11">
+        <v>0.01946875697432483</v>
+      </c>
+      <c r="F11">
+        <v>-0.01251572433607128</v>
+      </c>
+      <c r="G11">
+        <v>0.01762849958803962</v>
+      </c>
+      <c r="H11">
+        <v>0.04351882487696845</v>
+      </c>
+      <c r="I11">
+        <v>0.02245972541836502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02543586073350316</v>
+        <v>0.01384597993474645</v>
       </c>
       <c r="C12">
-        <v>-0.04112179370693639</v>
+        <v>-0.04961323314372926</v>
       </c>
       <c r="D12">
-        <v>-0.06681132387657771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05172989768630742</v>
+      </c>
+      <c r="E12">
+        <v>0.01436969820804539</v>
+      </c>
+      <c r="F12">
+        <v>-0.01725842039133635</v>
+      </c>
+      <c r="G12">
+        <v>0.009792403320098324</v>
+      </c>
+      <c r="H12">
+        <v>0.07343663441059889</v>
+      </c>
+      <c r="I12">
+        <v>0.01058139218692895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.004970940972113184</v>
+        <v>0.006206958325428759</v>
       </c>
       <c r="C13">
-        <v>-0.0285133305832955</v>
+        <v>-0.04431536015061809</v>
       </c>
       <c r="D13">
-        <v>-0.1542762970954001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1556782560374431</v>
+      </c>
+      <c r="E13">
+        <v>0.04387351354330337</v>
+      </c>
+      <c r="F13">
+        <v>0.0355759730800427</v>
+      </c>
+      <c r="G13">
+        <v>0.04501864076851081</v>
+      </c>
+      <c r="H13">
+        <v>0.04977585044816591</v>
+      </c>
+      <c r="I13">
+        <v>-0.06564620293828916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.000614095270055311</v>
+        <v>0.001261692504129842</v>
       </c>
       <c r="C14">
-        <v>-0.02167950735163946</v>
+        <v>-0.02879344601041444</v>
       </c>
       <c r="D14">
-        <v>-0.1103446855005742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1039592809990189</v>
+      </c>
+      <c r="E14">
+        <v>0.02408099144324564</v>
+      </c>
+      <c r="F14">
+        <v>0.02124404199461444</v>
+      </c>
+      <c r="G14">
+        <v>0.06860301552971151</v>
+      </c>
+      <c r="H14">
+        <v>0.0923746096784068</v>
+      </c>
+      <c r="I14">
+        <v>-0.0278122893988491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0006269620650186502</v>
+        <v>-0.001122353207287032</v>
       </c>
       <c r="C15">
-        <v>-0.009505712767373253</v>
+        <v>-0.01850119389072149</v>
       </c>
       <c r="D15">
-        <v>-0.02131110905038882</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05007056167014205</v>
+      </c>
+      <c r="E15">
+        <v>0.005255364468091922</v>
+      </c>
+      <c r="F15">
+        <v>0.001062104655379192</v>
+      </c>
+      <c r="G15">
+        <v>0.02453017064642622</v>
+      </c>
+      <c r="H15">
+        <v>0.005233714506346065</v>
+      </c>
+      <c r="I15">
+        <v>0.01850772931270293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02244848543455852</v>
+        <v>0.012947361090055</v>
       </c>
       <c r="C16">
-        <v>-0.03900051758712546</v>
+        <v>-0.04810244645779967</v>
       </c>
       <c r="D16">
-        <v>-0.06289641683435525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04843703213358296</v>
+      </c>
+      <c r="E16">
+        <v>0.02045492897246572</v>
+      </c>
+      <c r="F16">
+        <v>-0.007120668226477203</v>
+      </c>
+      <c r="G16">
+        <v>0.009043997852660657</v>
+      </c>
+      <c r="H16">
+        <v>0.05114383971441595</v>
+      </c>
+      <c r="I16">
+        <v>0.02174576862960814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.006146195611170761</v>
+        <v>0.0009190950048881183</v>
       </c>
       <c r="C19">
-        <v>-0.02303155159189942</v>
+        <v>-0.02065033039308748</v>
       </c>
       <c r="D19">
-        <v>-0.1360235674564772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08869668524499912</v>
+      </c>
+      <c r="E19">
+        <v>-0.01939755258467028</v>
+      </c>
+      <c r="F19">
+        <v>0.01063297636065665</v>
+      </c>
+      <c r="G19">
+        <v>0.04278982990883852</v>
+      </c>
+      <c r="H19">
+        <v>0.05920517400882577</v>
+      </c>
+      <c r="I19">
+        <v>-0.04366472325295465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.008082404858066472</v>
+        <v>0.006886451990966031</v>
       </c>
       <c r="C20">
-        <v>-0.02777553480481204</v>
+        <v>-0.03890259902918817</v>
       </c>
       <c r="D20">
-        <v>-0.09404600428182908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1005623182082498</v>
+      </c>
+      <c r="E20">
+        <v>0.004895232281218465</v>
+      </c>
+      <c r="F20">
+        <v>0.02462700667510343</v>
+      </c>
+      <c r="G20">
+        <v>0.02571549045487731</v>
+      </c>
+      <c r="H20">
+        <v>0.05477229439064082</v>
+      </c>
+      <c r="I20">
+        <v>-0.007323792156515308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.008268986498823103</v>
+        <v>0.00168128615170238</v>
       </c>
       <c r="C21">
-        <v>-0.03429319719150154</v>
+        <v>-0.04293324216286774</v>
       </c>
       <c r="D21">
-        <v>-0.1737571752376944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1409841412220258</v>
+      </c>
+      <c r="E21">
+        <v>-0.006283729581117919</v>
+      </c>
+      <c r="F21">
+        <v>0.06962425356586933</v>
+      </c>
+      <c r="G21">
+        <v>0.08460763449381466</v>
+      </c>
+      <c r="H21">
+        <v>0.1343093588499767</v>
+      </c>
+      <c r="I21">
+        <v>-0.1211350365623446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0004844681940680485</v>
+        <v>-0.006412183751695631</v>
       </c>
       <c r="C22">
-        <v>-0.05860898760946438</v>
+        <v>-0.07111611327653058</v>
       </c>
       <c r="D22">
-        <v>-0.1963989169187926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.241269636635875</v>
+      </c>
+      <c r="E22">
+        <v>0.05229941534714089</v>
+      </c>
+      <c r="F22">
+        <v>0.03079131057286974</v>
+      </c>
+      <c r="G22">
+        <v>0.153620772260846</v>
+      </c>
+      <c r="H22">
+        <v>-0.4977931296590409</v>
+      </c>
+      <c r="I22">
+        <v>0.1292658370554685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0002655578177416946</v>
+        <v>-0.005943303982266441</v>
       </c>
       <c r="C23">
-        <v>-0.05907254724478762</v>
+        <v>-0.07198753591530853</v>
       </c>
       <c r="D23">
-        <v>-0.1959652717028652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2419858014683827</v>
+      </c>
+      <c r="E23">
+        <v>0.04930876120365733</v>
+      </c>
+      <c r="F23">
+        <v>0.03007920521021389</v>
+      </c>
+      <c r="G23">
+        <v>0.1522765509458076</v>
+      </c>
+      <c r="H23">
+        <v>-0.4975378597085152</v>
+      </c>
+      <c r="I23">
+        <v>0.1312241403164699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.029948673607237</v>
+        <v>0.01385602495982373</v>
       </c>
       <c r="C24">
-        <v>-0.05719845415573488</v>
+        <v>-0.06527275974965262</v>
       </c>
       <c r="D24">
-        <v>-0.07397408811224541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05712643197423572</v>
+      </c>
+      <c r="E24">
+        <v>0.02261840728103432</v>
+      </c>
+      <c r="F24">
+        <v>-0.00490699159015182</v>
+      </c>
+      <c r="G24">
+        <v>0.02701965459882101</v>
+      </c>
+      <c r="H24">
+        <v>0.07248892957991999</v>
+      </c>
+      <c r="I24">
+        <v>0.0182999081784578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03366568855733117</v>
+        <v>0.01820656726359155</v>
       </c>
       <c r="C25">
-        <v>-0.04848666870839052</v>
+        <v>-0.06107290720935111</v>
       </c>
       <c r="D25">
-        <v>-0.06800484282682807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05533765389996202</v>
+      </c>
+      <c r="E25">
+        <v>0.009735593096307863</v>
+      </c>
+      <c r="F25">
+        <v>-0.008857538076959097</v>
+      </c>
+      <c r="G25">
+        <v>0.008869623195908739</v>
+      </c>
+      <c r="H25">
+        <v>0.04646931586866728</v>
+      </c>
+      <c r="I25">
+        <v>0.01368872103245446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.005256866081268722</v>
+        <v>0.00762556968261904</v>
       </c>
       <c r="C26">
-        <v>-0.01592164725704985</v>
+        <v>-0.02279817442246921</v>
       </c>
       <c r="D26">
-        <v>-0.08178817648319696</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07287334315374855</v>
+      </c>
+      <c r="E26">
+        <v>0.02273763779141194</v>
+      </c>
+      <c r="F26">
+        <v>0.02703599035061927</v>
+      </c>
+      <c r="G26">
+        <v>0.03427060109974728</v>
+      </c>
+      <c r="H26">
+        <v>0.0702363552937046</v>
+      </c>
+      <c r="I26">
+        <v>-0.051660034107005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2361825785617252</v>
+        <v>0.3134501690743752</v>
       </c>
       <c r="C28">
-        <v>0.2229299744573226</v>
+        <v>0.1345350401648328</v>
       </c>
       <c r="D28">
-        <v>-0.01483578269007851</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.003770043268783831</v>
+      </c>
+      <c r="E28">
+        <v>-0.040797012987521</v>
+      </c>
+      <c r="F28">
+        <v>0.04421576134327942</v>
+      </c>
+      <c r="G28">
+        <v>-0.003137227833292764</v>
+      </c>
+      <c r="H28">
+        <v>-0.03990333702074489</v>
+      </c>
+      <c r="I28">
+        <v>-0.1322007218303198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001835507492724675</v>
+        <v>-0.0006647184231307222</v>
       </c>
       <c r="C29">
-        <v>-0.02137575531031758</v>
+        <v>-0.02923743592574274</v>
       </c>
       <c r="D29">
-        <v>-0.1018842482970962</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.101287774443199</v>
+      </c>
+      <c r="E29">
+        <v>0.03764591845474776</v>
+      </c>
+      <c r="F29">
+        <v>0.03130503415018174</v>
+      </c>
+      <c r="G29">
+        <v>0.05675504345498927</v>
+      </c>
+      <c r="H29">
+        <v>0.09473783859343529</v>
+      </c>
+      <c r="I29">
+        <v>-0.02760108607729878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02520872902077238</v>
+        <v>0.01846998092204927</v>
       </c>
       <c r="C30">
-        <v>-0.0610687188175059</v>
+        <v>-0.08136780261545855</v>
       </c>
       <c r="D30">
-        <v>-0.1658541685172514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1628853587623727</v>
+      </c>
+      <c r="E30">
+        <v>0.04303692234031611</v>
+      </c>
+      <c r="F30">
+        <v>0.03266852687623548</v>
+      </c>
+      <c r="G30">
+        <v>0.04716346367155987</v>
+      </c>
+      <c r="H30">
+        <v>0.02418138572120148</v>
+      </c>
+      <c r="I30">
+        <v>0.05935207791064177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04418307090323671</v>
+        <v>0.01605429651724937</v>
       </c>
       <c r="C31">
-        <v>-0.08133945724805544</v>
+        <v>-0.08851603895422683</v>
       </c>
       <c r="D31">
-        <v>-0.08112805235465662</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04705410922208164</v>
+      </c>
+      <c r="E31">
+        <v>0.009635938970293596</v>
+      </c>
+      <c r="F31">
+        <v>0.01723473778049522</v>
+      </c>
+      <c r="G31">
+        <v>0.01906333513121535</v>
+      </c>
+      <c r="H31">
+        <v>0.04166039916058981</v>
+      </c>
+      <c r="I31">
+        <v>-0.07046995365450162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01886104390271826</v>
+        <v>0.01342556238259725</v>
       </c>
       <c r="C32">
-        <v>-0.03607478632950661</v>
+        <v>-0.04077558759202651</v>
       </c>
       <c r="D32">
-        <v>-0.09770654820273708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1079229161555744</v>
+      </c>
+      <c r="E32">
+        <v>-0.005095082889350932</v>
+      </c>
+      <c r="F32">
+        <v>0.04408893910130079</v>
+      </c>
+      <c r="G32">
+        <v>0.0322370446327345</v>
+      </c>
+      <c r="H32">
+        <v>0.02576720386815557</v>
+      </c>
+      <c r="I32">
+        <v>-0.0712335066602973</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01786589245809665</v>
+        <v>0.01079242913839637</v>
       </c>
       <c r="C33">
-        <v>-0.04241595125288278</v>
+        <v>-0.05593225139769218</v>
       </c>
       <c r="D33">
-        <v>-0.1528858791940433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1332413549363917</v>
+      </c>
+      <c r="E33">
+        <v>0.01468370536607155</v>
+      </c>
+      <c r="F33">
+        <v>0.02673056800561742</v>
+      </c>
+      <c r="G33">
+        <v>0.04327617279507535</v>
+      </c>
+      <c r="H33">
+        <v>0.04883672055124393</v>
+      </c>
+      <c r="I33">
+        <v>-0.02798336580644276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.029651667777493</v>
+        <v>0.0127219262380148</v>
       </c>
       <c r="C34">
-        <v>-0.05785573194642911</v>
+        <v>-0.06366174808482779</v>
       </c>
       <c r="D34">
-        <v>-0.05344472910526185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03536810116886445</v>
+      </c>
+      <c r="E34">
+        <v>0.02772563082654351</v>
+      </c>
+      <c r="F34">
+        <v>-0.03746147821634808</v>
+      </c>
+      <c r="G34">
+        <v>0.01812231820859556</v>
+      </c>
+      <c r="H34">
+        <v>0.05637990329281225</v>
+      </c>
+      <c r="I34">
+        <v>-0.0011502067722198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008838535925615781</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004484455282208441</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01493082133078344</v>
+      </c>
+      <c r="E35">
+        <v>0.00278649945458442</v>
+      </c>
+      <c r="F35">
+        <v>0.0005031645916516566</v>
+      </c>
+      <c r="G35">
+        <v>0.00275179875405224</v>
+      </c>
+      <c r="H35">
+        <v>0.00840443302632778</v>
+      </c>
+      <c r="I35">
+        <v>0.004701031549058916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01100538610550218</v>
+        <v>0.01313922000512505</v>
       </c>
       <c r="C36">
-        <v>-0.004087742699548346</v>
+        <v>-0.01774222176159596</v>
       </c>
       <c r="D36">
-        <v>-0.1007811340103298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08608945074230852</v>
+      </c>
+      <c r="E36">
+        <v>0.009914101625963416</v>
+      </c>
+      <c r="F36">
+        <v>0.03597137196053297</v>
+      </c>
+      <c r="G36">
+        <v>0.02792376408008336</v>
+      </c>
+      <c r="H36">
+        <v>0.05695804098303971</v>
+      </c>
+      <c r="I36">
+        <v>-0.02809007490423945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.01010186317929409</v>
+        <v>0.01832180846098525</v>
       </c>
       <c r="C38">
-        <v>-0.01037590933523479</v>
+        <v>-0.01627460900418936</v>
       </c>
       <c r="D38">
-        <v>-0.09680939192040142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.09029923733083836</v>
+      </c>
+      <c r="E38">
+        <v>-0.009129049185112268</v>
+      </c>
+      <c r="F38">
+        <v>-0.008580341687502224</v>
+      </c>
+      <c r="G38">
+        <v>0.04178188538983915</v>
+      </c>
+      <c r="H38">
+        <v>0.03539898869502361</v>
+      </c>
+      <c r="I38">
+        <v>-0.0456721508646383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02339816083723962</v>
+        <v>0.009523497335304824</v>
       </c>
       <c r="C39">
-        <v>-0.05770510099795424</v>
+        <v>-0.07593009443508023</v>
       </c>
       <c r="D39">
-        <v>-0.1174595628927806</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1082964701485501</v>
+      </c>
+      <c r="E39">
+        <v>0.04669681801305734</v>
+      </c>
+      <c r="F39">
+        <v>-0.006893003727015008</v>
+      </c>
+      <c r="G39">
+        <v>0.03541535708700989</v>
+      </c>
+      <c r="H39">
+        <v>0.09606304094069575</v>
+      </c>
+      <c r="I39">
+        <v>0.04817694595699058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01974020586946272</v>
+        <v>0.01379306806926148</v>
       </c>
       <c r="C40">
-        <v>-0.021992271558035</v>
+        <v>-0.03102527357178418</v>
       </c>
       <c r="D40">
-        <v>-0.126482522471709</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1032845535252734</v>
+      </c>
+      <c r="E40">
+        <v>0.04509878957807</v>
+      </c>
+      <c r="F40">
+        <v>-0.02120801308336506</v>
+      </c>
+      <c r="G40">
+        <v>0.1001613585580645</v>
+      </c>
+      <c r="H40">
+        <v>0.01411242395259807</v>
+      </c>
+      <c r="I40">
+        <v>-0.04775926956954046</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01514059458127233</v>
+        <v>0.01477209968832272</v>
       </c>
       <c r="C41">
-        <v>-0.007772102342239807</v>
+        <v>-0.01689972281686946</v>
       </c>
       <c r="D41">
-        <v>-0.06948885904571328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0509031824005475</v>
+      </c>
+      <c r="E41">
+        <v>-0.02234672297753704</v>
+      </c>
+      <c r="F41">
+        <v>0.01803912758799842</v>
+      </c>
+      <c r="G41">
+        <v>0.03808923272086354</v>
+      </c>
+      <c r="H41">
+        <v>0.02689117861127424</v>
+      </c>
+      <c r="I41">
+        <v>-0.05582068361655559</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.008794958261496497</v>
+        <v>0.007323767332925876</v>
       </c>
       <c r="C43">
-        <v>-0.01198481681281697</v>
+        <v>-0.01859115635835124</v>
       </c>
       <c r="D43">
-        <v>-0.0871120048336879</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.06482119126047566</v>
+      </c>
+      <c r="E43">
+        <v>-0.00745189396132542</v>
+      </c>
+      <c r="F43">
+        <v>0.01707881465969372</v>
+      </c>
+      <c r="G43">
+        <v>0.04849719301514326</v>
+      </c>
+      <c r="H43">
+        <v>0.05643258251569144</v>
+      </c>
+      <c r="I43">
+        <v>-0.0544940075023819</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01363147983779057</v>
+        <v>0.01173548285311528</v>
       </c>
       <c r="C44">
-        <v>-0.03164848654129435</v>
+        <v>-0.04385281667147389</v>
       </c>
       <c r="D44">
-        <v>-0.1091786440326895</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1145465531977643</v>
+      </c>
+      <c r="E44">
+        <v>0.02175729893746057</v>
+      </c>
+      <c r="F44">
+        <v>0.02247116457903506</v>
+      </c>
+      <c r="G44">
+        <v>0.02898421973734381</v>
+      </c>
+      <c r="H44">
+        <v>0.03535174091159158</v>
+      </c>
+      <c r="I44">
+        <v>0.04482712321871777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.009861932424040777</v>
+        <v>-0.0003214202630798968</v>
       </c>
       <c r="C46">
-        <v>-0.0290065330199606</v>
+        <v>-0.03935988508879801</v>
       </c>
       <c r="D46">
-        <v>-0.1036539179030095</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08708778285712096</v>
+      </c>
+      <c r="E46">
+        <v>0.02141166219892849</v>
+      </c>
+      <c r="F46">
+        <v>0.02858183068737601</v>
+      </c>
+      <c r="G46">
+        <v>0.07065574920576542</v>
+      </c>
+      <c r="H46">
+        <v>0.1046640187681225</v>
+      </c>
+      <c r="I46">
+        <v>-0.05019678951727966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08253580971217513</v>
+        <v>0.04284954605338077</v>
       </c>
       <c r="C47">
-        <v>-0.1029956005725473</v>
+        <v>-0.1186226098315293</v>
       </c>
       <c r="D47">
-        <v>-0.06199916622593936</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0304012233720267</v>
+      </c>
+      <c r="E47">
+        <v>-0.01342071352376817</v>
+      </c>
+      <c r="F47">
+        <v>-0.006892257158603917</v>
+      </c>
+      <c r="G47">
+        <v>-0.03531143491775741</v>
+      </c>
+      <c r="H47">
+        <v>0.04924993001815082</v>
+      </c>
+      <c r="I47">
+        <v>-0.1299202435831623</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.006600933736612874</v>
+        <v>0.0086306892945068</v>
       </c>
       <c r="C48">
-        <v>-0.01689935519051708</v>
+        <v>-0.02610602166960288</v>
       </c>
       <c r="D48">
-        <v>-0.09690526316679879</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08774594157100478</v>
+      </c>
+      <c r="E48">
+        <v>-0.005526755674991752</v>
+      </c>
+      <c r="F48">
+        <v>0.03982270610231736</v>
+      </c>
+      <c r="G48">
+        <v>0.04301595340011034</v>
+      </c>
+      <c r="H48">
+        <v>0.07464698002279342</v>
+      </c>
+      <c r="I48">
+        <v>-0.02666934529345282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04277333769072014</v>
+        <v>0.01831297326721899</v>
       </c>
       <c r="C50">
-        <v>-0.06128347006581516</v>
+        <v>-0.07342129749190353</v>
       </c>
       <c r="D50">
-        <v>-0.07741890783446738</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05202680515882981</v>
+      </c>
+      <c r="E50">
+        <v>0.002250406852923121</v>
+      </c>
+      <c r="F50">
+        <v>0.008561149845039757</v>
+      </c>
+      <c r="G50">
+        <v>0.03433102561706899</v>
+      </c>
+      <c r="H50">
+        <v>0.02038328141067835</v>
+      </c>
+      <c r="I50">
+        <v>-0.1150065405902421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.005710192067072663</v>
+        <v>0.00402914419681539</v>
       </c>
       <c r="C51">
-        <v>-0.007513185823180815</v>
+        <v>-0.01862049566661993</v>
       </c>
       <c r="D51">
-        <v>-0.06597277223906932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.06882660735857231</v>
+      </c>
+      <c r="E51">
+        <v>0.03709764702799376</v>
+      </c>
+      <c r="F51">
+        <v>0.03300623695471098</v>
+      </c>
+      <c r="G51">
+        <v>0.05272888062794659</v>
+      </c>
+      <c r="H51">
+        <v>0.0286359556241039</v>
+      </c>
+      <c r="I51">
+        <v>-0.005179569050427897</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1100824226592522</v>
+        <v>0.06948475487265042</v>
       </c>
       <c r="C53">
-        <v>-0.1178364803249447</v>
+        <v>-0.1492168475602001</v>
       </c>
       <c r="D53">
-        <v>-0.01940713972226433</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006699242639350036</v>
+      </c>
+      <c r="E53">
+        <v>-0.03395882172444355</v>
+      </c>
+      <c r="F53">
+        <v>0.05445510729552859</v>
+      </c>
+      <c r="G53">
+        <v>0.002724585186305506</v>
+      </c>
+      <c r="H53">
+        <v>0.007334439448071849</v>
+      </c>
+      <c r="I53">
+        <v>-0.08294608090442551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01777289918652084</v>
+        <v>0.01235346605697601</v>
       </c>
       <c r="C54">
-        <v>-0.02350718254946273</v>
+        <v>-0.03816311166949867</v>
       </c>
       <c r="D54">
-        <v>-0.1119128431641839</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08822160164484544</v>
+      </c>
+      <c r="E54">
+        <v>0.01173936138077484</v>
+      </c>
+      <c r="F54">
+        <v>-0.001215429604662168</v>
+      </c>
+      <c r="G54">
+        <v>0.06053196966444072</v>
+      </c>
+      <c r="H54">
+        <v>0.06049957254034132</v>
+      </c>
+      <c r="I54">
+        <v>-0.06481609603376817</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.0970999933743897</v>
+        <v>0.05429581611693672</v>
       </c>
       <c r="C55">
-        <v>-0.09821735415162461</v>
+        <v>-0.124267064021683</v>
       </c>
       <c r="D55">
-        <v>-0.00711242078982528</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01755116046349986</v>
+      </c>
+      <c r="E55">
+        <v>0.0009010407904200132</v>
+      </c>
+      <c r="F55">
+        <v>0.02228072720798049</v>
+      </c>
+      <c r="G55">
+        <v>0.02127654651562962</v>
+      </c>
+      <c r="H55">
+        <v>-0.008215822496793505</v>
+      </c>
+      <c r="I55">
+        <v>-0.07922132681311814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1369677000875204</v>
+        <v>0.07753434336960884</v>
       </c>
       <c r="C56">
-        <v>-0.1270774692284741</v>
+        <v>-0.1755424710988316</v>
       </c>
       <c r="D56">
-        <v>0.0003477459811432698</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02196871189021199</v>
+      </c>
+      <c r="E56">
+        <v>-0.03016295908494932</v>
+      </c>
+      <c r="F56">
+        <v>0.02190893995678385</v>
+      </c>
+      <c r="G56">
+        <v>0.04405506340856234</v>
+      </c>
+      <c r="H56">
+        <v>-0.03144265095616913</v>
+      </c>
+      <c r="I56">
+        <v>-0.1050924722888142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01649285727602714</v>
+        <v>-0.002736054738566573</v>
       </c>
       <c r="C58">
-        <v>-0.02171862365720108</v>
+        <v>-0.0449187060513973</v>
       </c>
       <c r="D58">
-        <v>-0.2078700429065207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2785013862302436</v>
+      </c>
+      <c r="E58">
+        <v>-0.02692232740537861</v>
+      </c>
+      <c r="F58">
+        <v>0.09330929811357466</v>
+      </c>
+      <c r="G58">
+        <v>0.0771804679202707</v>
+      </c>
+      <c r="H58">
+        <v>-0.1699387916228683</v>
+      </c>
+      <c r="I58">
+        <v>0.05179764518573925</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1688632652598927</v>
+        <v>0.2386502582587182</v>
       </c>
       <c r="C59">
-        <v>0.1618221541900037</v>
+        <v>0.09468257331943847</v>
       </c>
       <c r="D59">
-        <v>-0.05075997404608124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06226031287738134</v>
+      </c>
+      <c r="E59">
+        <v>-0.02667489944739717</v>
+      </c>
+      <c r="F59">
+        <v>0.01168584039137956</v>
+      </c>
+      <c r="G59">
+        <v>-0.01741677783234295</v>
+      </c>
+      <c r="H59">
+        <v>-0.02145644922644338</v>
+      </c>
+      <c r="I59">
+        <v>-0.02626773254498524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2019818978413604</v>
+        <v>0.1598578582492432</v>
       </c>
       <c r="C60">
-        <v>-0.1026329906754667</v>
+        <v>-0.1686224615298593</v>
       </c>
       <c r="D60">
-        <v>-0.157687853534802</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07925753135107971</v>
+      </c>
+      <c r="E60">
+        <v>0.2347250586631834</v>
+      </c>
+      <c r="F60">
+        <v>-0.1659781531380781</v>
+      </c>
+      <c r="G60">
+        <v>-0.2797280516817651</v>
+      </c>
+      <c r="H60">
+        <v>-0.07538455983818423</v>
+      </c>
+      <c r="I60">
+        <v>0.05715438251520567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03471112478258047</v>
+        <v>0.01786946875343448</v>
       </c>
       <c r="C61">
-        <v>-0.05558801367714702</v>
+        <v>-0.07209363100060159</v>
       </c>
       <c r="D61">
-        <v>-0.1117520840740854</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08684515826340757</v>
+      </c>
+      <c r="E61">
+        <v>0.03692142785547768</v>
+      </c>
+      <c r="F61">
+        <v>-0.01612614979927265</v>
+      </c>
+      <c r="G61">
+        <v>0.01432851349255079</v>
+      </c>
+      <c r="H61">
+        <v>0.09536928365010311</v>
+      </c>
+      <c r="I61">
+        <v>-0.0009124669793107945</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01085268643154299</v>
+        <v>0.004700469780931373</v>
       </c>
       <c r="C63">
-        <v>-0.02471657361222371</v>
+        <v>-0.03537349060814261</v>
       </c>
       <c r="D63">
-        <v>-0.09492224309516641</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07275293379651099</v>
+      </c>
+      <c r="E63">
+        <v>0.023600845161471</v>
+      </c>
+      <c r="F63">
+        <v>0.02073906086333404</v>
+      </c>
+      <c r="G63">
+        <v>0.03839220934542545</v>
+      </c>
+      <c r="H63">
+        <v>0.04795738206036219</v>
+      </c>
+      <c r="I63">
+        <v>-0.01461169717579055</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06371075086949124</v>
+        <v>0.03001230054184936</v>
       </c>
       <c r="C64">
-        <v>-0.08261582864669109</v>
+        <v>-0.1034975751399347</v>
       </c>
       <c r="D64">
-        <v>-0.04633092634943013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03616148399230361</v>
+      </c>
+      <c r="E64">
+        <v>0.02973429447803559</v>
+      </c>
+      <c r="F64">
+        <v>0.02705798373076585</v>
+      </c>
+      <c r="G64">
+        <v>0.005752985835215306</v>
+      </c>
+      <c r="H64">
+        <v>0.1147394902695858</v>
+      </c>
+      <c r="I64">
+        <v>0.02174541113106866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02748264777169495</v>
+        <v>0.02270087478834165</v>
       </c>
       <c r="C65">
-        <v>-0.01622606263636308</v>
+        <v>-0.03592404284796583</v>
       </c>
       <c r="D65">
-        <v>-0.1181424781018035</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1081208701178505</v>
+      </c>
+      <c r="E65">
+        <v>0.0396202792243687</v>
+      </c>
+      <c r="F65">
+        <v>0.00652985142889482</v>
+      </c>
+      <c r="G65">
+        <v>0.004463870621462236</v>
+      </c>
+      <c r="H65">
+        <v>0.01337550782620653</v>
+      </c>
+      <c r="I65">
+        <v>-0.02621060590574128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02756270183019615</v>
+        <v>0.01157031212148298</v>
       </c>
       <c r="C66">
-        <v>-0.06375221487831588</v>
+        <v>-0.08817530538295634</v>
       </c>
       <c r="D66">
-        <v>-0.1223828069713283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1328198399375385</v>
+      </c>
+      <c r="E66">
+        <v>0.03862013924641123</v>
+      </c>
+      <c r="F66">
+        <v>-0.01645539400409227</v>
+      </c>
+      <c r="G66">
+        <v>0.02545323458130396</v>
+      </c>
+      <c r="H66">
+        <v>0.05419676974475742</v>
+      </c>
+      <c r="I66">
+        <v>0.06406171190920107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02951125169304832</v>
+        <v>0.02870868602212151</v>
       </c>
       <c r="C67">
-        <v>-0.02175511352447551</v>
+        <v>-0.02929290659539529</v>
       </c>
       <c r="D67">
-        <v>-0.0518592806386851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03956633212790694</v>
+      </c>
+      <c r="E67">
+        <v>0.003916379881583076</v>
+      </c>
+      <c r="F67">
+        <v>-0.02874374843115298</v>
+      </c>
+      <c r="G67">
+        <v>0.03722453409854722</v>
+      </c>
+      <c r="H67">
+        <v>0.04972846304046148</v>
+      </c>
+      <c r="I67">
+        <v>-0.03720070591709863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2061147301621791</v>
+        <v>0.2655273752414959</v>
       </c>
       <c r="C68">
-        <v>0.1749532878491196</v>
+        <v>0.09398732485321985</v>
       </c>
       <c r="D68">
-        <v>-0.03675085860538117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03020815834887268</v>
+      </c>
+      <c r="E68">
+        <v>0.007844896952957025</v>
+      </c>
+      <c r="F68">
+        <v>0.02359478411636801</v>
+      </c>
+      <c r="G68">
+        <v>0.03302546417368677</v>
+      </c>
+      <c r="H68">
+        <v>-0.0604366243010076</v>
+      </c>
+      <c r="I68">
+        <v>-0.108260941543551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06477388189276605</v>
+        <v>0.02962529660449388</v>
       </c>
       <c r="C69">
-        <v>-0.1136318438696494</v>
+        <v>-0.1203341592798709</v>
       </c>
       <c r="D69">
-        <v>-0.08611123297865829</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04509016812911185</v>
+      </c>
+      <c r="E69">
+        <v>0.004645771647293577</v>
+      </c>
+      <c r="F69">
+        <v>-0.01154444011352538</v>
+      </c>
+      <c r="G69">
+        <v>-0.01468802752890845</v>
+      </c>
+      <c r="H69">
+        <v>0.04648985243917222</v>
+      </c>
+      <c r="I69">
+        <v>-0.08123209792848908</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2063733526423815</v>
+        <v>0.2649902497720623</v>
       </c>
       <c r="C71">
-        <v>0.1912837091899442</v>
+        <v>0.1083524740724913</v>
       </c>
       <c r="D71">
-        <v>-0.03212536574112653</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02373617332006939</v>
+      </c>
+      <c r="E71">
+        <v>-0.00350491850951152</v>
+      </c>
+      <c r="F71">
+        <v>0.01841642557346459</v>
+      </c>
+      <c r="G71">
+        <v>0.03294261409415303</v>
+      </c>
+      <c r="H71">
+        <v>-0.01599695874206268</v>
+      </c>
+      <c r="I71">
+        <v>-0.1720943584482111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1079792110538214</v>
+        <v>0.06659502517154237</v>
       </c>
       <c r="C72">
-        <v>-0.07021046733407563</v>
+        <v>-0.1187574122904777</v>
       </c>
       <c r="D72">
-        <v>-0.09406149703248781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06798999750952082</v>
+      </c>
+      <c r="E72">
+        <v>0.09052274058578941</v>
+      </c>
+      <c r="F72">
+        <v>-0.01228768721083737</v>
+      </c>
+      <c r="G72">
+        <v>0.009022315877256541</v>
+      </c>
+      <c r="H72">
+        <v>0.0531123175745466</v>
+      </c>
+      <c r="I72">
+        <v>0.04435912375971312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1768399715847108</v>
+        <v>0.1414415394056368</v>
       </c>
       <c r="C73">
-        <v>-0.05403431572038218</v>
+        <v>-0.1288750955358824</v>
       </c>
       <c r="D73">
-        <v>-0.2045298321940851</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0818286557087608</v>
+      </c>
+      <c r="E73">
+        <v>0.4050774076601242</v>
+      </c>
+      <c r="F73">
+        <v>-0.2410293969235573</v>
+      </c>
+      <c r="G73">
+        <v>-0.4531510394201454</v>
+      </c>
+      <c r="H73">
+        <v>0.03717538867660976</v>
+      </c>
+      <c r="I73">
+        <v>0.1013467414398385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1079076656349913</v>
+        <v>0.06084551245846313</v>
       </c>
       <c r="C74">
-        <v>-0.1063607463347421</v>
+        <v>-0.1363121648274933</v>
       </c>
       <c r="D74">
-        <v>0.02114977326447091</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03633389742960606</v>
+      </c>
+      <c r="E74">
+        <v>-0.01762140577360516</v>
+      </c>
+      <c r="F74">
+        <v>0.05253137497219108</v>
+      </c>
+      <c r="G74">
+        <v>-0.001972597711683112</v>
+      </c>
+      <c r="H74">
+        <v>-0.01573854742672615</v>
+      </c>
+      <c r="I74">
+        <v>-0.1039930096748957</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2462531172713104</v>
+        <v>0.1467173747150808</v>
       </c>
       <c r="C75">
-        <v>-0.1884240957408726</v>
+        <v>-0.2601634205634671</v>
       </c>
       <c r="D75">
-        <v>0.1064188390927462</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1326208994168822</v>
+      </c>
+      <c r="E75">
+        <v>-0.08414065581482399</v>
+      </c>
+      <c r="F75">
+        <v>-0.03121505699818707</v>
+      </c>
+      <c r="G75">
+        <v>0.08127629116761209</v>
+      </c>
+      <c r="H75">
+        <v>-0.0380327594068575</v>
+      </c>
+      <c r="I75">
+        <v>-0.09650189115299604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1476038211822725</v>
+        <v>0.08176940193647579</v>
       </c>
       <c r="C76">
-        <v>-0.1333179818018318</v>
+        <v>-0.1771596194756753</v>
       </c>
       <c r="D76">
-        <v>-0.01219678191377511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02469028795611366</v>
+      </c>
+      <c r="E76">
+        <v>-0.0307041441860305</v>
+      </c>
+      <c r="F76">
+        <v>0.01232468685770924</v>
+      </c>
+      <c r="G76">
+        <v>0.05890749852208068</v>
+      </c>
+      <c r="H76">
+        <v>0.004937789424359989</v>
+      </c>
+      <c r="I76">
+        <v>-0.1065949254935015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02870417539082292</v>
+        <v>0.04193524053804556</v>
       </c>
       <c r="C77">
-        <v>-0.08428173777266608</v>
+        <v>-0.0947835791965866</v>
       </c>
       <c r="D77">
-        <v>-0.06968137291773405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2631211693831466</v>
+      </c>
+      <c r="E77">
+        <v>-0.7420240114977059</v>
+      </c>
+      <c r="F77">
+        <v>-0.3428763316049143</v>
+      </c>
+      <c r="G77">
+        <v>-0.3884095086221154</v>
+      </c>
+      <c r="H77">
+        <v>-0.1326258551596682</v>
+      </c>
+      <c r="I77">
+        <v>-0.01479879099765081</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02569120886786245</v>
+        <v>0.01848593591703212</v>
       </c>
       <c r="C78">
-        <v>-0.0729561804576427</v>
+        <v>-0.0847458203512494</v>
       </c>
       <c r="D78">
-        <v>-0.1607332767440935</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1413018749308949</v>
+      </c>
+      <c r="E78">
+        <v>0.04629733075898049</v>
+      </c>
+      <c r="F78">
+        <v>0.04055218574027609</v>
+      </c>
+      <c r="G78">
+        <v>0.02789057598480255</v>
+      </c>
+      <c r="H78">
+        <v>0.01510298832459633</v>
+      </c>
+      <c r="I78">
+        <v>0.006284795863581059</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.08109803648700058</v>
+        <v>0.04239813243751134</v>
       </c>
       <c r="C79">
-        <v>-0.1461759131869814</v>
+        <v>-0.170285890272711</v>
       </c>
       <c r="D79">
-        <v>0.1048514116089292</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05644659439379283</v>
+      </c>
+      <c r="E79">
+        <v>-0.1207200810202706</v>
+      </c>
+      <c r="F79">
+        <v>0.8039622705622479</v>
+      </c>
+      <c r="G79">
+        <v>-0.440210832922167</v>
+      </c>
+      <c r="H79">
+        <v>-0.02994248984920852</v>
+      </c>
+      <c r="I79">
+        <v>0.1840796158320976</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.01042677993835588</v>
+        <v>0.002681585168109993</v>
       </c>
       <c r="C80">
-        <v>-0.04749722278954553</v>
+        <v>-0.04999993624736691</v>
       </c>
       <c r="D80">
-        <v>-0.04819745370050978</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04740761667151742</v>
+      </c>
+      <c r="E80">
+        <v>0.02001917758810187</v>
+      </c>
+      <c r="F80">
+        <v>0.006881518526950962</v>
+      </c>
+      <c r="G80">
+        <v>0.04540388601128187</v>
+      </c>
+      <c r="H80">
+        <v>-0.004400239072506025</v>
+      </c>
+      <c r="I80">
+        <v>-0.05118683018976825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1274299436575025</v>
+        <v>0.06721005520619233</v>
       </c>
       <c r="C81">
-        <v>-0.1260606557243935</v>
+        <v>-0.1596096348230519</v>
       </c>
       <c r="D81">
-        <v>0.0644409895705553</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07385425214422846</v>
+      </c>
+      <c r="E81">
+        <v>-0.06759371450120763</v>
+      </c>
+      <c r="F81">
+        <v>0.04818017626693025</v>
+      </c>
+      <c r="G81">
+        <v>0.05790746349869369</v>
+      </c>
+      <c r="H81">
+        <v>0.03418710588695153</v>
+      </c>
+      <c r="I81">
+        <v>-0.1397075608787281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2555321450291177</v>
+        <v>0.1266049227840266</v>
       </c>
       <c r="C82">
-        <v>-0.2862166368543378</v>
+        <v>-0.319565794444625</v>
       </c>
       <c r="D82">
-        <v>0.2159146699825742</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.224267787064084</v>
+      </c>
+      <c r="E82">
+        <v>-0.04355241250303281</v>
+      </c>
+      <c r="F82">
+        <v>-0.1092437170615524</v>
+      </c>
+      <c r="G82">
+        <v>0.08776457175585262</v>
+      </c>
+      <c r="H82">
+        <v>0.05515989867129825</v>
+      </c>
+      <c r="I82">
+        <v>-0.1028917851073831</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.006256970114612163</v>
+        <v>-0.003938364056970533</v>
       </c>
       <c r="C83">
-        <v>-0.05797787646527101</v>
+        <v>-0.0448108680935614</v>
       </c>
       <c r="D83">
-        <v>-0.03224121668115277</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04407553690194817</v>
+      </c>
+      <c r="E83">
+        <v>-0.1052692539255056</v>
+      </c>
+      <c r="F83">
+        <v>0.003393243457394226</v>
+      </c>
+      <c r="G83">
+        <v>0.06222013864406909</v>
+      </c>
+      <c r="H83">
+        <v>0.03892749462229578</v>
+      </c>
+      <c r="I83">
+        <v>-0.01237306423182619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-9.31768292815523e-05</v>
+        <v>0.001240383195033133</v>
       </c>
       <c r="C84">
-        <v>-0.0005020543841269951</v>
+        <v>-0.01313583045388344</v>
       </c>
       <c r="D84">
-        <v>-0.00022691468169818</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03734687864036527</v>
+      </c>
+      <c r="E84">
+        <v>-0.004656198085653539</v>
+      </c>
+      <c r="F84">
+        <v>0.01692068115321377</v>
+      </c>
+      <c r="G84">
+        <v>0.03819217030992592</v>
+      </c>
+      <c r="H84">
+        <v>-0.02159957899714107</v>
+      </c>
+      <c r="I84">
+        <v>0.02688423780230244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1518553510139943</v>
+        <v>0.08192185065000977</v>
       </c>
       <c r="C85">
-        <v>-0.1387490731662331</v>
+        <v>-0.186326007244216</v>
       </c>
       <c r="D85">
-        <v>0.0479942830534278</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0874205761811227</v>
+      </c>
+      <c r="E85">
+        <v>-0.0008249498636761141</v>
+      </c>
+      <c r="F85">
+        <v>0.07826656428511702</v>
+      </c>
+      <c r="G85">
+        <v>0.02886400782133208</v>
+      </c>
+      <c r="H85">
+        <v>-0.01564931662151212</v>
+      </c>
+      <c r="I85">
+        <v>-0.1295911830154685</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01690690831670416</v>
+        <v>0.0139056584356236</v>
       </c>
       <c r="C86">
-        <v>-0.02015089645231644</v>
+        <v>-0.02931583507921546</v>
       </c>
       <c r="D86">
-        <v>-0.08669826494097131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1028729260189377</v>
+      </c>
+      <c r="E86">
+        <v>-0.03852827676915536</v>
+      </c>
+      <c r="F86">
+        <v>-0.02304374606527413</v>
+      </c>
+      <c r="G86">
+        <v>-0.03220924560116675</v>
+      </c>
+      <c r="H86">
+        <v>0.01521512929774956</v>
+      </c>
+      <c r="I86">
+        <v>-0.06797442403378151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02227133122111889</v>
+        <v>0.01863315729203972</v>
       </c>
       <c r="C87">
-        <v>-0.02270830887987866</v>
+        <v>-0.0495831664052642</v>
       </c>
       <c r="D87">
-        <v>-0.1227821149394394</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1465254803186322</v>
+      </c>
+      <c r="E87">
+        <v>-0.01043571005940697</v>
+      </c>
+      <c r="F87">
+        <v>0.04538933443942973</v>
+      </c>
+      <c r="G87">
+        <v>0.08922163658466437</v>
+      </c>
+      <c r="H87">
+        <v>0.007474194377016306</v>
+      </c>
+      <c r="I87">
+        <v>0.09702489857941614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.0567356072065245</v>
+        <v>0.03467188988720588</v>
       </c>
       <c r="C88">
-        <v>-0.04717758401477785</v>
+        <v>-0.06561669320689362</v>
       </c>
       <c r="D88">
-        <v>-0.04742220984870358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01472693313835552</v>
+      </c>
+      <c r="E88">
+        <v>0.01756570215896154</v>
+      </c>
+      <c r="F88">
+        <v>0.03417322339075579</v>
+      </c>
+      <c r="G88">
+        <v>0.01704051590874024</v>
+      </c>
+      <c r="H88">
+        <v>0.0297039301744319</v>
+      </c>
+      <c r="I88">
+        <v>-0.0811060662709641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3080266318456998</v>
+        <v>0.3984420276810104</v>
       </c>
       <c r="C89">
-        <v>0.3481402238346777</v>
+        <v>0.2033522123978682</v>
       </c>
       <c r="D89">
-        <v>-0.04068225466936315</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.03000564827927718</v>
+      </c>
+      <c r="E89">
+        <v>-0.03188523849513457</v>
+      </c>
+      <c r="F89">
+        <v>0.06115244787659765</v>
+      </c>
+      <c r="G89">
+        <v>0.1058507435779443</v>
+      </c>
+      <c r="H89">
+        <v>0.1615574241724328</v>
+      </c>
+      <c r="I89">
+        <v>0.4289803654445409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2443152710051321</v>
+        <v>0.3092823119348052</v>
       </c>
       <c r="C90">
-        <v>0.252450700219727</v>
+        <v>0.1372920150950726</v>
       </c>
       <c r="D90">
-        <v>-0.03235106515008992</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03589968036396579</v>
+      </c>
+      <c r="E90">
+        <v>-0.009929187208395177</v>
+      </c>
+      <c r="F90">
+        <v>-0.01526799078662254</v>
+      </c>
+      <c r="G90">
+        <v>0.05057389297604874</v>
+      </c>
+      <c r="H90">
+        <v>-0.03716716790233676</v>
+      </c>
+      <c r="I90">
+        <v>-0.0733360780434035</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1627445343655256</v>
+        <v>0.0871292075003883</v>
       </c>
       <c r="C91">
-        <v>-0.1742849299666273</v>
+        <v>-0.204116962767935</v>
       </c>
       <c r="D91">
-        <v>0.1036250437781672</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1105885912084563</v>
+      </c>
+      <c r="E91">
+        <v>-0.07369956076481658</v>
+      </c>
+      <c r="F91">
+        <v>0.07721375205790833</v>
+      </c>
+      <c r="G91">
+        <v>0.007508512856940206</v>
+      </c>
+      <c r="H91">
+        <v>-0.01307639698493528</v>
+      </c>
+      <c r="I91">
+        <v>-0.135197746230371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2170490318321998</v>
+        <v>0.3144660118214165</v>
       </c>
       <c r="C92">
-        <v>0.260704133689364</v>
+        <v>0.1722557193513367</v>
       </c>
       <c r="D92">
-        <v>0.04750040826544438</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.003451706109192171</v>
+      </c>
+      <c r="E92">
+        <v>-0.08145758734428096</v>
+      </c>
+      <c r="F92">
+        <v>0.02842868034596529</v>
+      </c>
+      <c r="G92">
+        <v>0.05145000333064344</v>
+      </c>
+      <c r="H92">
+        <v>-0.000101568513367237</v>
+      </c>
+      <c r="I92">
+        <v>0.07287404565235034</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2660131167811809</v>
+        <v>0.3227940065718965</v>
       </c>
       <c r="C93">
-        <v>0.257517215606046</v>
+        <v>0.1415742059944725</v>
       </c>
       <c r="D93">
-        <v>-0.0154253667901715</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01067576893393713</v>
+      </c>
+      <c r="E93">
+        <v>0.03215491524596269</v>
+      </c>
+      <c r="F93">
+        <v>0.01458061605595927</v>
+      </c>
+      <c r="G93">
+        <v>-0.0201071799983075</v>
+      </c>
+      <c r="H93">
+        <v>-0.01681344610153567</v>
+      </c>
+      <c r="I93">
+        <v>-0.1359095259634465</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3154329609520237</v>
+        <v>0.1786996546653702</v>
       </c>
       <c r="C94">
-        <v>-0.2519364080552825</v>
+        <v>-0.3457231870430442</v>
       </c>
       <c r="D94">
-        <v>0.3582821026507763</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3553120208963775</v>
+      </c>
+      <c r="E94">
+        <v>-0.0532889750442346</v>
+      </c>
+      <c r="F94">
+        <v>-0.1130249663252163</v>
+      </c>
+      <c r="G94">
+        <v>0.2773963979208945</v>
+      </c>
+      <c r="H94">
+        <v>-0.1763292886571858</v>
+      </c>
+      <c r="I94">
+        <v>0.4331283742496296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.03250820530579916</v>
+        <v>0.0270988442185617</v>
       </c>
       <c r="C95">
-        <v>-0.03905462985130103</v>
+        <v>-0.06404407879697398</v>
       </c>
       <c r="D95">
-        <v>-0.09253830106064666</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1224102537105708</v>
+      </c>
+      <c r="E95">
+        <v>-0.2139343371281901</v>
+      </c>
+      <c r="F95">
+        <v>-0.08107467295630305</v>
+      </c>
+      <c r="G95">
+        <v>0.0667663515075754</v>
+      </c>
+      <c r="H95">
+        <v>0.4424500222238706</v>
+      </c>
+      <c r="I95">
+        <v>0.4128330560486683</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.000773047007350962</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-9.055472401270434e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0005858565662139761</v>
+      </c>
+      <c r="E97">
+        <v>0.0005153236430783538</v>
+      </c>
+      <c r="F97">
+        <v>-0.002013464443379082</v>
+      </c>
+      <c r="G97">
+        <v>-0.001519422164603078</v>
+      </c>
+      <c r="H97">
+        <v>0.0001783371376950339</v>
+      </c>
+      <c r="I97">
+        <v>0.001290300009057024</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1535152055362607</v>
+        <v>0.1240287186203288</v>
       </c>
       <c r="C98">
-        <v>-0.07171384068137966</v>
+        <v>-0.1341020663292081</v>
       </c>
       <c r="D98">
-        <v>-0.1166904579330345</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05851393499832558</v>
+      </c>
+      <c r="E98">
+        <v>0.2711297298767396</v>
+      </c>
+      <c r="F98">
+        <v>-0.1614628682282179</v>
+      </c>
+      <c r="G98">
+        <v>-0.2812439448752948</v>
+      </c>
+      <c r="H98">
+        <v>-0.02533711704352591</v>
+      </c>
+      <c r="I98">
+        <v>0.09196626278956054</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001410532539715832</v>
+        <v>-0.0002910532287784802</v>
       </c>
       <c r="C101">
-        <v>-0.02082676466042551</v>
+        <v>-0.02867171625629249</v>
       </c>
       <c r="D101">
-        <v>-0.1021304772422648</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1009399222383816</v>
+      </c>
+      <c r="E101">
+        <v>0.03695407112566986</v>
+      </c>
+      <c r="F101">
+        <v>0.03173529358021795</v>
+      </c>
+      <c r="G101">
+        <v>0.0577277621635464</v>
+      </c>
+      <c r="H101">
+        <v>0.09578397256885059</v>
+      </c>
+      <c r="I101">
+        <v>-0.02750827182969599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1167430668753265</v>
+        <v>0.05237996712861094</v>
       </c>
       <c r="C102">
-        <v>-0.1479154641359644</v>
+        <v>-0.1527219849333877</v>
       </c>
       <c r="D102">
-        <v>0.07174016983166925</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09034154186645953</v>
+      </c>
+      <c r="E102">
+        <v>-0.0322768257250708</v>
+      </c>
+      <c r="F102">
+        <v>-0.06237639979769356</v>
+      </c>
+      <c r="G102">
+        <v>0.01509196827600104</v>
+      </c>
+      <c r="H102">
+        <v>0.052679015770053</v>
+      </c>
+      <c r="I102">
+        <v>-0.03194314383407033</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
